--- a/biology/Écologie/Forêts_sèches_mexicaines/Forêts_sèches_mexicaines.xlsx
+++ b/biology/Écologie/Forêts_sèches_mexicaines/Forêts_sèches_mexicaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_s%C3%A8ches_mexicaines</t>
+          <t>Forêts_sèches_mexicaines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les forêts sèches mexicaines forment une région écologique identifiée par le Fonds mondial pour la nature (WWF) comme faisant partie de la liste « Global 200 », c'est-à-dire considérée comme exceptionnelle au niveau biologique et prioritaire en matière de conservation. Elle regroupe plusieurs écorégions terrestres du biome des forêts de feuillus sèches tropicales et subtropicales du Mexique et du Guatemala :
 les forêts sèches du Jalisco
